--- a/evaluations/GPT/2025-03-31_103806/snake/only_lexical_smells_01/evaluation.xlsx
+++ b/evaluations/GPT/2025-03-31_103806/snake/only_lexical_smells_01/evaluation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2.5.3</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
   </si>
   <si>
     <t>2.5.1, 2.5.3</t>
@@ -563,14 +566,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="1">
         <v>0.0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -591,7 +596,7 @@
         <v>0.0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -616,12 +621,12 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3">
         <f>SUM(C2:C15)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">

--- a/evaluations/GPT/2025-03-31_103806/snake/only_lexical_smells_01/evaluation.xlsx
+++ b/evaluations/GPT/2025-03-31_103806/snake/only_lexical_smells_01/evaluation.xlsx
@@ -751,10 +751,7 @@
     <row r="27">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <f>SUM(E2:E26)</f>
-        <v>18</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
   </sheetData>
